--- a/raw_data/KEEN ONE/Byrnes/2016/SW Appledore 2016/SWAppledore_quad_2016.xlsx
+++ b/raw_data/KEEN ONE/Byrnes/2016/SW Appledore 2016/SWAppledore_quad_2016.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="-5800" windowWidth="33920" windowHeight="15040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
     <sheet name="Allowed Codes" sheetId="4" r:id="rId2"/>
+    <sheet name="Changelog" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Entry'!$G$1:$G$967</definedName>
@@ -223,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="220">
   <si>
     <t>YEAR</t>
   </si>
@@ -1319,9 +1320,6 @@
     <t>BMC</t>
   </si>
   <si>
-    <t>SDJ</t>
-  </si>
-  <si>
     <t>SW_APPLEDORE</t>
   </si>
   <si>
@@ -1341,6 +1339,15 @@
   </si>
   <si>
     <t>SOUTH_PEPPERRELL</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>SDJ = SDS, SDS = SDL for McCollum data according to her recollection in N and South Pepperrell</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1472,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="118">
+  <cellStyleXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1584,8 +1591,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1691,8 +1700,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="118">
+  <cellStyles count="120">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1751,6 +1761,7 @@
     <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1809,6 +1820,7 @@
     <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2211,7 +2223,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S41" sqref="S41"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2311,10 +2323,10 @@
         <v>42592</v>
       </c>
       <c r="E2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" t="s">
         <v>211</v>
-      </c>
-      <c r="F2" t="s">
-        <v>212</v>
       </c>
       <c r="G2" t="s">
         <v>119</v>
@@ -2368,10 +2380,10 @@
         <v>42592</v>
       </c>
       <c r="E3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" t="s">
         <v>211</v>
-      </c>
-      <c r="F3" t="s">
-        <v>212</v>
       </c>
       <c r="G3" t="s">
         <v>198</v>
@@ -2419,10 +2431,10 @@
         <v>42592</v>
       </c>
       <c r="E4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" t="s">
         <v>211</v>
-      </c>
-      <c r="F4" t="s">
-        <v>212</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -2470,10 +2482,10 @@
         <v>42592</v>
       </c>
       <c r="E5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" t="s">
         <v>211</v>
-      </c>
-      <c r="F5" t="s">
-        <v>212</v>
       </c>
       <c r="G5" t="s">
         <v>199</v>
@@ -2521,10 +2533,10 @@
         <v>42592</v>
       </c>
       <c r="E6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" t="s">
         <v>211</v>
-      </c>
-      <c r="F6" t="s">
-        <v>212</v>
       </c>
       <c r="G6" t="s">
         <v>200</v>
@@ -2574,10 +2586,10 @@
         <v>42592</v>
       </c>
       <c r="E7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" t="s">
         <v>211</v>
-      </c>
-      <c r="F7" t="s">
-        <v>212</v>
       </c>
       <c r="G7" t="s">
         <v>201</v>
@@ -2624,10 +2636,10 @@
         <v>42592</v>
       </c>
       <c r="E8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" t="s">
         <v>211</v>
-      </c>
-      <c r="F8" t="s">
-        <v>212</v>
       </c>
       <c r="G8" t="s">
         <v>202</v>
@@ -2679,10 +2691,10 @@
         <v>42592</v>
       </c>
       <c r="E9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" t="s">
         <v>211</v>
-      </c>
-      <c r="F9" t="s">
-        <v>212</v>
       </c>
       <c r="G9" t="s">
         <v>203</v>
@@ -2732,10 +2744,10 @@
         <v>42592</v>
       </c>
       <c r="E10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" t="s">
         <v>211</v>
-      </c>
-      <c r="F10" t="s">
-        <v>212</v>
       </c>
       <c r="G10" t="s">
         <v>204</v>
@@ -2785,10 +2797,10 @@
         <v>42592</v>
       </c>
       <c r="E11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" t="s">
         <v>211</v>
-      </c>
-      <c r="F11" t="s">
-        <v>212</v>
       </c>
       <c r="G11" t="s">
         <v>205</v>
@@ -2836,10 +2848,10 @@
         <v>42592</v>
       </c>
       <c r="E12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" t="s">
         <v>211</v>
-      </c>
-      <c r="F12" t="s">
-        <v>212</v>
       </c>
       <c r="G12" t="s">
         <v>206</v>
@@ -2887,10 +2899,10 @@
         <v>42592</v>
       </c>
       <c r="E13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F13" t="s">
         <v>211</v>
-      </c>
-      <c r="F13" t="s">
-        <v>212</v>
       </c>
       <c r="G13" t="s">
         <v>153</v>
@@ -2938,10 +2950,10 @@
         <v>42592</v>
       </c>
       <c r="E14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F14" t="s">
         <v>211</v>
-      </c>
-      <c r="F14" t="s">
-        <v>212</v>
       </c>
       <c r="G14" t="s">
         <v>207</v>
@@ -2989,10 +3001,10 @@
         <v>42592</v>
       </c>
       <c r="E15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" t="s">
         <v>211</v>
-      </c>
-      <c r="F15" t="s">
-        <v>212</v>
       </c>
       <c r="G15" t="s">
         <v>154</v>
@@ -3040,10 +3052,10 @@
         <v>42592</v>
       </c>
       <c r="E16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" t="s">
         <v>211</v>
-      </c>
-      <c r="F16" t="s">
-        <v>212</v>
       </c>
       <c r="G16" t="s">
         <v>85</v>
@@ -3095,10 +3107,10 @@
         <v>42592</v>
       </c>
       <c r="E17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" t="s">
         <v>211</v>
-      </c>
-      <c r="F17" t="s">
-        <v>212</v>
       </c>
       <c r="G17" t="s">
         <v>149</v>
@@ -3146,10 +3158,10 @@
         <v>42592</v>
       </c>
       <c r="E18" t="s">
+        <v>210</v>
+      </c>
+      <c r="F18" t="s">
         <v>211</v>
-      </c>
-      <c r="F18" t="s">
-        <v>212</v>
       </c>
       <c r="G18" t="s">
         <v>134</v>
@@ -3199,13 +3211,13 @@
         <v>42592</v>
       </c>
       <c r="E19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" t="s">
         <v>211</v>
       </c>
-      <c r="F19" t="s">
-        <v>212</v>
-      </c>
       <c r="G19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H19" s="2">
         <v>11</v>
@@ -3262,13 +3274,13 @@
         <v>42592</v>
       </c>
       <c r="E20" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" t="s">
         <v>211</v>
       </c>
-      <c r="F20" t="s">
-        <v>212</v>
-      </c>
       <c r="G20" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="H20" s="2">
         <v>13</v>
@@ -3325,10 +3337,10 @@
         <v>42592</v>
       </c>
       <c r="E21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" t="s">
         <v>211</v>
-      </c>
-      <c r="F21" t="s">
-        <v>212</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
@@ -3378,10 +3390,10 @@
         <v>42592</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
         <v>119</v>
@@ -3399,7 +3411,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5" t="s">
@@ -3435,10 +3447,10 @@
         <v>42592</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
         <v>198</v>
@@ -3454,7 +3466,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5" t="s">
@@ -3490,10 +3502,10 @@
         <v>42592</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -3507,7 +3519,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5" t="s">
@@ -3543,10 +3555,10 @@
         <v>42592</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G25" t="s">
         <v>149</v>
@@ -3560,7 +3572,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5" t="s">
@@ -3596,13 +3608,13 @@
         <v>42592</v>
       </c>
       <c r="E26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -3613,7 +3625,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5" t="s">
@@ -3649,10 +3661,10 @@
         <v>42592</v>
       </c>
       <c r="E27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>202</v>
@@ -3666,7 +3678,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5" t="s">
@@ -3702,10 +3714,10 @@
         <v>42592</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>128</v>
@@ -3719,7 +3731,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O28" s="5"/>
       <c r="P28" s="5" t="s">
@@ -3755,10 +3767,10 @@
         <v>42592</v>
       </c>
       <c r="E29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>135</v>
@@ -3776,7 +3788,7 @@
         <v>2</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5" t="s">
@@ -3812,10 +3824,10 @@
         <v>42592</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>132</v>
@@ -3831,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="5" t="s">
@@ -3867,10 +3879,10 @@
         <v>42592</v>
       </c>
       <c r="E31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>198</v>
@@ -3922,10 +3934,10 @@
         <v>42592</v>
       </c>
       <c r="E32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G32" s="43" t="s">
         <v>12</v>
@@ -3977,10 +3989,10 @@
         <v>42592</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G33" s="43" t="s">
         <v>199</v>
@@ -4030,10 +4042,10 @@
         <v>42592</v>
       </c>
       <c r="E34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G34" s="43" t="s">
         <v>200</v>
@@ -4085,10 +4097,10 @@
         <v>42592</v>
       </c>
       <c r="E35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G35" s="43" t="s">
         <v>202</v>
@@ -4138,10 +4150,10 @@
         <v>42592</v>
       </c>
       <c r="E36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G36" s="43" t="s">
         <v>204</v>
@@ -4191,10 +4203,10 @@
         <v>42592</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G37" s="43" t="s">
         <v>205</v>
@@ -4246,10 +4258,10 @@
         <v>42592</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G38" s="43" t="s">
         <v>85</v>
@@ -4299,10 +4311,10 @@
         <v>42592</v>
       </c>
       <c r="E39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G39" s="43" t="s">
         <v>149</v>
@@ -4352,10 +4364,10 @@
         <v>42592</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G40" s="43" t="s">
         <v>134</v>
@@ -4405,13 +4417,13 @@
         <v>42592</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G41" s="43" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H41" s="2">
         <v>15</v>
@@ -4468,13 +4480,13 @@
         <v>42592</v>
       </c>
       <c r="E42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G42" s="43" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="H42" s="2">
         <v>75</v>
@@ -4527,10 +4539,10 @@
         <v>42592</v>
       </c>
       <c r="E43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G43" s="43" t="s">
         <v>97</v>
@@ -6631,4 +6643,41 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="47">
+        <v>42921</v>
+      </c>
+      <c r="B2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>